--- a/results/second_to_third/scf_values.xlsx
+++ b/results/second_to_third/scf_values.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hassan/Desktop/Codes/solvation_shells/results/second_to_third/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B6683E3F-14E4-1242-BB14-71FC17A8CA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16557167-73CF-F34E-95D8-760094730D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="0" windowWidth="38400" windowHeight="21600"/>
+    <workbookView xWindow="29400" yWindow="500" windowWidth="38400" windowHeight="19700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scf_values" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>functional</t>
   </si>
@@ -142,12 +142,24 @@
   <si>
     <t>error</t>
   </si>
+  <si>
+    <t>dG</t>
+  </si>
+  <si>
+    <t>Delta+correction</t>
+  </si>
+  <si>
+    <t>Ered+correction</t>
+  </si>
+  <si>
+    <t>error2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -278,6 +290,13 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -624,9 +643,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1165,7 +1185,755 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>scf_values!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>scf_values!$A$2:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>B2PLYP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B3LYP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>B3PW91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>B97D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BLYP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BMK</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>bpw91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CAM-B3LYP</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>HSE06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>M05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>M06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>M06-2X</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>M06-HF</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>M06-L</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>M08-HX</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>MPW1PW91</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>n12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>O3LYP</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>OLYP</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>OPBE</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>OTPSS</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>OVWN5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>PBE</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>PBE0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>svwn</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>TPSSh</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>wB97</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>wB97X</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>wB97X-D</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>X3LYP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>scf_values!$F$2:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1.2259996652317995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.5142227082424631E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0192184953629497</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3128491627186976</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.7535153090242792E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41444219993179598</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.5394258654147996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1499149792182704</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6.1350047465883462E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0770271326016119</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0464131250409425</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5422694878026388</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2361636986121165</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.84518091573972476</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14124625117664213</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0733766949174091</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.44806305928986</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.8982838248453171</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.5662185695234174</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.9286535247531138</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.4253977758671439</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.1214117492836082</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.1405506741996612</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.36125733280043154</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.26602475923878965</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.4256807804862128</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.64679670497897956</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.9444734306911227</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.1301254448902107</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.44110428371455357</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DE0D-9E44-AF7F-53394B64331F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>scf_values!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>error2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>scf_values!$A$2:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>B2PLYP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B3LYP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>B3PW91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>B97D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BLYP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BMK</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>bpw91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CAM-B3LYP</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>HSE06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>M05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>M06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>M06-2X</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>M06-HF</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>M06-L</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>M08-HX</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>MPW1PW91</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>n12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>O3LYP</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>OLYP</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>OPBE</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>OTPSS</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>OVWN5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>PBE</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>PBE0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>svwn</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>TPSSh</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>wB97</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>wB97X</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>wB97X-D</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>X3LYP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>scf_values!$J$2:$J$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1.2259997715488435</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.5142137638469277E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0192185785054062</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3128492662788358</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.7535061355775658E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41444228926174387</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.5394257747789497</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1499150705692576</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6.1349958726701237E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0770272146350879</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.046413204120592</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5422695727277564</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2361637869056339</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.84518083055549886</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14124636316296191</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0733767815422728</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4480631348145523</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.8982839151391446</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.5662186647091976</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.92865362477902402</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.425397677395879</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.1214118449357824</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.1405507686495757</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.36125724310773294</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.26602467573358157</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.4256808755579855</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.64679679285792457</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.9444735215446252</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.1301255337744938</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.44110437489971255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DE0D-9E44-AF7F-53394B64331F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="240151375"/>
+        <c:axId val="240402687"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="240151375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="240402687"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="240402687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="240151375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1708,20 +2476,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>360680</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>370840</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>325120</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>162560</xdr:rowOff>
+      <xdr:rowOff>132080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1741,6 +3012,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>473840</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>118767</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>29196</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>145977</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12EB77F8-764E-4315-13EF-1DFB9A84F866}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2065,16 +3372,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2093,8 +3400,20 @@
       <c r="F1" t="s">
         <v>35</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -2105,19 +3424,34 @@
         <v>-4009.5514437400002</v>
       </c>
       <c r="D2">
-        <f>(B2-C2)*2625.5*1000</f>
+        <f t="shared" ref="D2:D31" si="0">(B2-C2)*2625.5*1000</f>
         <v>-606504.67769989022</v>
       </c>
       <c r="E2" s="1">
-        <f>-D2/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" ref="E2:E31" si="1">-D2/(96485*1)-1.24-3.25+0.2</f>
         <v>1.9959996652317995</v>
       </c>
       <c r="F2" s="1">
-        <f>E2-0.77</f>
+        <f t="shared" ref="F2:F31" si="2">E2-0.77</f>
         <v>1.2259996652317995</v>
       </c>
+      <c r="G2" s="2">
+        <v>-1.0258E-2</v>
+      </c>
+      <c r="H2">
+        <f>D2+G2</f>
+        <v>-606504.68795789022</v>
+      </c>
+      <c r="I2" s="1">
+        <f>-H2/(96485*1)-1.24-3.25+0.2</f>
+        <v>1.9959997715488436</v>
+      </c>
+      <c r="J2" s="1">
+        <f>I2-0.77</f>
+        <v>1.2259997715488435</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2128,19 +3462,34 @@
         <v>-4014.9026651700001</v>
       </c>
       <c r="D3">
-        <f>(B3-C3)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-486753.10221995233</v>
       </c>
       <c r="E3" s="1">
-        <f>-D3/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>0.75485777291757539</v>
       </c>
       <c r="F3" s="1">
-        <f>E3-0.77</f>
+        <f t="shared" si="2"/>
         <v>-1.5142227082424631E-2</v>
       </c>
+      <c r="G3" s="2">
+        <v>-8.6300000000000005E-3</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H31" si="3">D3+G3</f>
+        <v>-486753.11084995233</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I31" si="4">-H3/(96485*1)-1.24-3.25+0.2</f>
+        <v>0.75485786236153074</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J31" si="5">I3-0.77</f>
+        <v>-1.5142137638469277E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2151,19 +3500,34 @@
         <v>-4013.7304431299999</v>
       </c>
       <c r="D4">
-        <f>(B4-C4)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-683038.39652509417</v>
       </c>
       <c r="E4" s="1">
-        <f>-D4/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>2.7892184953629497</v>
       </c>
       <c r="F4" s="1">
-        <f>E4-0.77</f>
+        <f t="shared" si="2"/>
         <v>2.0192184953629497</v>
       </c>
+      <c r="G4" s="2">
+        <v>-8.0219999999999996E-3</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>-683038.40454709413</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="4"/>
+        <v>2.7892185785054062</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="5"/>
+        <v>2.0192185785054062</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -2174,19 +3538,34 @@
         <v>-4013.7149739900001</v>
       </c>
       <c r="D5">
-        <f>(B5-C5)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-807854.35146491346</v>
       </c>
       <c r="E5" s="1">
-        <f>-D5/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>4.0828491627186976</v>
       </c>
       <c r="F5" s="1">
-        <f>E5-0.77</f>
+        <f t="shared" si="2"/>
         <v>3.3128491627186976</v>
       </c>
+      <c r="G5" s="2">
+        <v>-9.9919999999999991E-3</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>-807854.36145691341</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="4"/>
+        <v>4.0828492662788358</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="5"/>
+        <v>3.3128492662788358</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2197,19 +3576,34 @@
         <v>-4014.2164982600002</v>
       </c>
       <c r="D6">
-        <f>(B6-C6)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-485557.37075408798</v>
       </c>
       <c r="E6" s="1">
-        <f>-D6/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>0.74246484690975723</v>
       </c>
       <c r="F6" s="1">
-        <f>E6-0.77</f>
+        <f t="shared" si="2"/>
         <v>-2.7535153090242792E-2</v>
       </c>
+      <c r="G6" s="2">
+        <v>-8.8509999999999995E-3</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>-485557.37960508798</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="4"/>
+        <v>0.74246493864422436</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="5"/>
+        <v>-2.7535061355775658E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2220,19 +3614,34 @@
         <v>-4012.8501586699999</v>
       </c>
       <c r="D7">
-        <f>(B7-C7)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-528201.5556604194</v>
       </c>
       <c r="E7" s="1">
-        <f>-D7/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>1.184442199931796</v>
       </c>
       <c r="F7" s="1">
-        <f>E7-0.77</f>
+        <f t="shared" si="2"/>
         <v>0.41444219993179598</v>
       </c>
+      <c r="G7" s="2">
+        <v>-8.6189999999999999E-3</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>-528201.56427941937</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="4"/>
+        <v>1.1844422892617439</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="5"/>
+        <v>0.41444228926174387</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2243,19 +3652,34 @@
         <v>-4014.50416533</v>
       </c>
       <c r="D8">
-        <f>(B8-C8)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-339682.59537545306</v>
       </c>
       <c r="E8" s="1">
-        <f>-D8/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>-0.76942586541479963</v>
       </c>
       <c r="F8" s="1">
-        <f>E8-0.77</f>
+        <f t="shared" si="2"/>
         <v>-1.5394258654147996</v>
       </c>
+      <c r="G8" s="2">
+        <v>-8.7449999999999993E-3</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>-339682.60412045306</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.76942577477894969</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.5394257747789497</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -2266,19 +3690,34 @@
         <v>-4013.8538561999999</v>
       </c>
       <c r="D9">
-        <f>(B9-C9)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-695648.64676987485</v>
       </c>
       <c r="E9" s="1">
-        <f>-D9/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>2.9199149792182704</v>
       </c>
       <c r="F9" s="1">
-        <f>E9-0.77</f>
+        <f t="shared" si="2"/>
         <v>2.1499149792182704</v>
       </c>
+      <c r="G9" s="2">
+        <v>-8.8140000000000007E-3</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>-695648.65558387479</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="4"/>
+        <v>2.9199150705692576</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="5"/>
+        <v>2.1499150705692576</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -2289,19 +3728,34 @@
         <v>-4011.77229188</v>
       </c>
       <c r="D10">
-        <f>(B10-C10)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-482294.74067025422</v>
       </c>
       <c r="E10" s="1">
-        <f>-D10/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>0.70864995253411656</v>
       </c>
       <c r="F10" s="1">
-        <f>E10-0.77</f>
+        <f t="shared" si="2"/>
         <v>-6.1350047465883462E-2</v>
       </c>
+      <c r="G10" s="2">
+        <v>-8.5620000000000002E-3</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>-482294.74923225422</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="4"/>
+        <v>0.70865004127329878</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="5"/>
+        <v>-6.1349958726701237E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -2312,19 +3766,34 @@
         <v>-4013.6485951200002</v>
       </c>
       <c r="D11">
-        <f>(B11-C11)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-592131.06288906652</v>
       </c>
       <c r="E11" s="1">
-        <f>-D11/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>1.8470271326016119</v>
       </c>
       <c r="F11" s="1">
-        <f>E11-0.77</f>
+        <f t="shared" si="2"/>
         <v>1.0770271326016119</v>
       </c>
+      <c r="G11" s="2">
+        <v>-7.9150000000000002E-3</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>-592131.07080406649</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="4"/>
+        <v>1.8470272146350879</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="5"/>
+        <v>1.0770272146350879</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2335,19 +3804,34 @@
         <v>-4013.4668911700001</v>
       </c>
       <c r="D12">
-        <f>(B12-C12)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-589177.27036957536</v>
       </c>
       <c r="E12" s="1">
-        <f>-D12/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>1.8164131250409425</v>
       </c>
       <c r="F12" s="1">
-        <f>E12-0.77</f>
+        <f t="shared" si="2"/>
         <v>1.0464131250409425</v>
       </c>
+      <c r="G12" s="2">
+        <v>-7.6299999999999996E-3</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>-589177.27799957537</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="4"/>
+        <v>1.816413204120592</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="5"/>
+        <v>1.046413204120592</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -2358,19 +3842,34 @@
         <v>-4013.4582710499999</v>
       </c>
       <c r="D13">
-        <f>(B13-C13)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-637019.97153063759</v>
       </c>
       <c r="E13" s="1">
-        <f>-D13/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>2.3122694878026389</v>
       </c>
       <c r="F13" s="1">
-        <f>E13-0.77</f>
+        <f t="shared" si="2"/>
         <v>1.5422694878026388</v>
       </c>
+      <c r="G13" s="2">
+        <v>-8.1939999999999999E-3</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>-637019.97972463758</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="4"/>
+        <v>2.3122695727277565</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="5"/>
+        <v>1.5422695727277564</v>
+      </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -2381,19 +3880,34 @@
         <v>-4013.5493672299999</v>
       </c>
       <c r="D14">
-        <f>(B14-C14)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-607485.35446059005</v>
       </c>
       <c r="E14" s="1">
-        <f>-D14/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>2.0061636986121165</v>
       </c>
       <c r="F14" s="1">
-        <f>E14-0.77</f>
+        <f t="shared" si="2"/>
         <v>1.2361636986121165</v>
       </c>
+      <c r="G14" s="2">
+        <v>-8.5190000000000005E-3</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>-607485.36297959008</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="4"/>
+        <v>2.0061637869056339</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="5"/>
+        <v>1.2361637869056339</v>
+      </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -2404,19 +3918,34 @@
         <v>-4014.3096733900002</v>
       </c>
       <c r="D15">
-        <f>(B15-C15)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-406666.8193448527</v>
       </c>
       <c r="E15" s="1">
-        <f>-D15/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>-7.5180915739724685E-2</v>
       </c>
       <c r="F15" s="1">
-        <f>E15-0.77</f>
+        <f t="shared" si="2"/>
         <v>-0.84518091573972476</v>
       </c>
+      <c r="G15" s="2">
+        <v>-8.2190000000000006E-3</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>-406666.82756385271</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="4"/>
+        <v>-7.518083055549879E-2</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.84518083055549886</v>
+      </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -2427,19 +3956,34 @@
         <v>-4013.6001289800001</v>
       </c>
       <c r="D16">
-        <f>(B16-C16)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-501842.24454477837</v>
       </c>
       <c r="E16" s="1">
-        <f>-D16/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>0.91124625117664215</v>
       </c>
       <c r="F16" s="1">
-        <f>E16-0.77</f>
+        <f t="shared" si="2"/>
         <v>0.14124625117664213</v>
       </c>
+      <c r="G16" s="2">
+        <v>-1.0805E-2</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>-501842.2553497784</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="4"/>
+        <v>0.91124636316296193</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="5"/>
+        <v>0.14124636316296191</v>
+      </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -2450,19 +3994,34 @@
         <v>-4013.9947913800002</v>
       </c>
       <c r="D17">
-        <f>(B17-C17)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-688263.85040910624</v>
       </c>
       <c r="E17" s="1">
-        <f>-D17/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>2.8433766949174091</v>
       </c>
       <c r="F17" s="1">
-        <f>E17-0.77</f>
+        <f t="shared" si="2"/>
         <v>2.0733766949174091</v>
       </c>
+      <c r="G17" s="2">
+        <v>-8.3580000000000008E-3</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>-688263.8587671062</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="4"/>
+        <v>2.8433767815422728</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="5"/>
+        <v>2.0733767815422728</v>
+      </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -2473,19 +4032,34 @@
         <v>-4013.3761002199999</v>
       </c>
       <c r="D18">
-        <f>(B18-C18)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-627930.46427558211</v>
       </c>
       <c r="E18" s="1">
-        <f>-D18/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>2.21806305928986</v>
       </c>
       <c r="F18" s="1">
-        <f>E18-0.77</f>
+        <f t="shared" si="2"/>
         <v>1.44806305928986</v>
       </c>
+      <c r="G18" s="2">
+        <v>-7.2870000000000001E-3</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>-627930.47156258207</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="4"/>
+        <v>2.2180631348145523</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="5"/>
+        <v>1.4480631348145523</v>
+      </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -2496,19 +4070,34 @@
         <v>-4013.91448227</v>
       </c>
       <c r="D19">
-        <f>(B19-C19)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-864340.01484020043</v>
       </c>
       <c r="E19" s="1">
-        <f>-D19/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>4.6682838248453171</v>
       </c>
       <c r="F19" s="1">
-        <f>E19-0.77</f>
+        <f t="shared" si="2"/>
         <v>3.8982838248453171</v>
       </c>
+      <c r="G19" s="2">
+        <v>-8.7119999999999993E-3</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>-864340.02355220041</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="4"/>
+        <v>4.6682839151391446</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="5"/>
+        <v>3.8982839151391446</v>
+      </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -2519,19 +4108,34 @@
         <v>-4013.9947606999999</v>
       </c>
       <c r="D20">
-        <f>(B20-C20)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-735815.69868046697</v>
       </c>
       <c r="E20" s="1">
-        <f>-D20/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>3.3362185695234174</v>
       </c>
       <c r="F20" s="1">
-        <f>E20-0.77</f>
+        <f t="shared" si="2"/>
         <v>2.5662185695234174</v>
       </c>
+      <c r="G20" s="2">
+        <v>-9.1839999999999995E-3</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>-735815.70786446694</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="4"/>
+        <v>3.3362186647091976</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="5"/>
+        <v>2.5662186647091976</v>
+      </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -2542,19 +4146,34 @@
         <v>-4013.5538812499999</v>
       </c>
       <c r="D21">
-        <f>(B21-C21)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-577815.23533580417</v>
       </c>
       <c r="E21" s="1">
-        <f>-D21/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>1.6986535247531138</v>
       </c>
       <c r="F21" s="1">
-        <f>E21-0.77</f>
+        <f t="shared" si="2"/>
         <v>0.9286535247531138</v>
       </c>
+      <c r="G21" s="2">
+        <v>-9.6509999999999999E-3</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>-577815.2449868042</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="4"/>
+        <v>1.698653624779024</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="5"/>
+        <v>0.92865362477902402</v>
+      </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -2565,19 +4184,34 @@
         <v>-4013.63995651</v>
       </c>
       <c r="D22">
-        <f>(B22-C22)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-350684.59559545864</v>
       </c>
       <c r="E22" s="1">
-        <f>-D22/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>-0.65539777586714387</v>
       </c>
       <c r="F22" s="1">
-        <f>E22-0.77</f>
+        <f t="shared" si="2"/>
         <v>-1.4253977758671439</v>
       </c>
+      <c r="G22" s="2">
+        <v>-9.5010000000000008E-3</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>-350684.60509645863</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.65539767739587895</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.425397677395879</v>
+      </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -2588,19 +4222,34 @@
         <v>-4026.4954292699999</v>
       </c>
       <c r="D23">
-        <f>(B23-C23)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-789383.512629629</v>
       </c>
       <c r="E23" s="1">
-        <f>-D23/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>3.8914117492836082</v>
       </c>
       <c r="F23" s="1">
-        <f>E23-0.77</f>
+        <f t="shared" si="2"/>
         <v>3.1214117492836082</v>
       </c>
+      <c r="G23" s="2">
+        <v>-9.2289999999999994E-3</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>-789383.52185862896</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="4"/>
+        <v>3.8914118449357824</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="5"/>
+        <v>3.1214118449357824</v>
+      </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -2611,19 +4260,34 @@
         <v>-4011.3076455599999</v>
       </c>
       <c r="D24">
-        <f>(B24-C24)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-791230.13180015434</v>
       </c>
       <c r="E24" s="1">
-        <f>-D24/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>3.9105506741996612</v>
       </c>
       <c r="F24" s="1">
-        <f>E24-0.77</f>
+        <f t="shared" si="2"/>
         <v>3.1405506741996612</v>
       </c>
+      <c r="G24" s="2">
+        <v>-9.1129999999999996E-3</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>-791230.14091315435</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="4"/>
+        <v>3.9105507686495757</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="5"/>
+        <v>3.1405507686495757</v>
+      </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -2634,19 +4298,34 @@
         <v>-4011.5210082799999</v>
       </c>
       <c r="D25">
-        <f>(B25-C25)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-453358.1862447504</v>
       </c>
       <c r="E25" s="1">
-        <f>-D25/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>0.40874266719956848</v>
       </c>
       <c r="F25" s="1">
-        <f>E25-0.77</f>
+        <f t="shared" si="2"/>
         <v>-0.36125733280043154</v>
       </c>
+      <c r="G25" s="2">
+        <v>-8.6540000000000002E-3</v>
+      </c>
+      <c r="H25">
+        <f>D25+G25</f>
+        <v>-453358.1948987504</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="4"/>
+        <v>0.40874275689226708</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.36125724310773294</v>
+      </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -2657,19 +4336,34 @@
         <v>-3999.7454800999999</v>
       </c>
       <c r="D26">
-        <f>(B26-C26)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-462546.70110484539</v>
       </c>
       <c r="E26" s="1">
-        <f>-D26/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>0.50397524076121036</v>
       </c>
       <c r="F26" s="1">
-        <f>E26-0.77</f>
+        <f t="shared" si="2"/>
         <v>-0.26602475923878965</v>
       </c>
+      <c r="G26" s="2">
+        <v>-8.0569999999999999E-3</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>-462546.70916184539</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="4"/>
+        <v>0.50397532426641845</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.26602467573358157</v>
+      </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -2680,19 +4374,34 @@
         <v>-4014.4305217400001</v>
       </c>
       <c r="D27">
-        <f>(B27-C27)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-722255.91010521224</v>
       </c>
       <c r="E27" s="1">
-        <f>-D27/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>3.1956807804862128</v>
       </c>
       <c r="F27" s="1">
-        <f>E27-0.77</f>
+        <f t="shared" si="2"/>
         <v>2.4256807804862128</v>
       </c>
+      <c r="G27" s="2">
+        <v>-9.1730000000000006E-3</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>-722255.91927821224</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="4"/>
+        <v>3.1956808755579855</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="5"/>
+        <v>2.4256808755579855</v>
+      </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -2703,19 +4412,34 @@
         <v>-4014.3039254099999</v>
       </c>
       <c r="D28">
-        <f>(B28-C28)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-550620.28007989691</v>
       </c>
       <c r="E28" s="1">
-        <f>-D28/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>1.4167967049789796</v>
       </c>
       <c r="F28" s="1">
-        <f>E28-0.77</f>
+        <f t="shared" si="2"/>
         <v>0.64679670497897956</v>
       </c>
+      <c r="G28" s="2">
+        <v>-8.4790000000000004E-3</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>-550620.28855889686</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="4"/>
+        <v>1.4167967928579246</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="5"/>
+        <v>0.64679679285792457</v>
+      </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -2726,19 +4450,34 @@
         <v>-4013.97270484</v>
       </c>
       <c r="D29">
-        <f>(B29-C29)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-772311.61896023306</v>
       </c>
       <c r="E29" s="1">
-        <f>-D29/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>3.7144734306911227</v>
       </c>
       <c r="F29" s="1">
-        <f>E29-0.77</f>
+        <f t="shared" si="2"/>
         <v>2.9444734306911227</v>
       </c>
+      <c r="G29" s="2">
+        <v>-8.7659999999999995E-3</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="3"/>
+        <v>-772311.6277262331</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="4"/>
+        <v>3.7144735215446252</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="5"/>
+        <v>2.9444735215446252</v>
+      </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -2749,19 +4488,34 @@
         <v>-4013.9406877500001</v>
       </c>
       <c r="D30">
-        <f>(B30-C30)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-597254.25355023204</v>
       </c>
       <c r="E30" s="1">
-        <f>-D30/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>1.9001254448902107</v>
       </c>
       <c r="F30" s="1">
-        <f>E30-0.77</f>
+        <f t="shared" si="2"/>
         <v>1.1301254448902107</v>
       </c>
+      <c r="G30" s="2">
+        <v>-8.5760000000000003E-3</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>-597254.26212623203</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="4"/>
+        <v>1.9001255337744938</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1301255337744938</v>
+      </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -2772,16 +4526,31 @@
         <v>-4013.7071298400001</v>
       </c>
       <c r="D31">
-        <f>(B31-C31)*2625.5*1000</f>
+        <f t="shared" si="0"/>
         <v>-530774.04681419872</v>
       </c>
       <c r="E31" s="1">
-        <f>-D31/(96485*1)-1.24-3.25+0.2</f>
+        <f t="shared" si="1"/>
         <v>1.2111042837145536</v>
       </c>
       <c r="F31" s="1">
-        <f>E31-0.77</f>
+        <f t="shared" si="2"/>
         <v>0.44110428371455357</v>
+      </c>
+      <c r="G31" s="2">
+        <v>-8.7980000000000003E-3</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="3"/>
+        <v>-530774.05561219878</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="4"/>
+        <v>1.2111043748997126</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="5"/>
+        <v>0.44110437489971255</v>
       </c>
     </row>
   </sheetData>

--- a/results/second_to_third/scf_values.xlsx
+++ b/results/second_to_third/scf_values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hassan/Desktop/Codes/solvation_shells/results/second_to_third/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16557167-73CF-F34E-95D8-760094730D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E612CF3-9147-F04F-AB06-9747520F633D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="500" windowWidth="38400" windowHeight="19700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scf_values" sheetId="1" r:id="rId1"/>
@@ -981,10 +981,10 @@
                   <c:v>3.1214117492836082</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.1405506741996612</c:v>
+                  <c:v>-0.13308387220107565</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.36125733280043154</c:v>
+                  <c:v>-0.4214455971388486</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-0.26602475923878965</c:v>
@@ -1431,10 +1431,10 @@
                   <c:v>3.1214117492836082</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.1405506741996612</c:v>
+                  <c:v>-0.13308387220107565</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.36125733280043154</c:v>
+                  <c:v>-0.4214455971388486</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-0.26602475923878965</c:v>
@@ -1658,10 +1658,10 @@
                   <c:v>3.1214118449357824</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.1405507686495757</c:v>
+                  <c:v>-0.13308377775116109</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.36125724310773294</c:v>
+                  <c:v>-0.42144550744615</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-0.26602467573358157</c:v>
@@ -3375,8 +3375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4254,37 +4254,37 @@
         <v>12</v>
       </c>
       <c r="B24">
-        <v>-4011.6090091599999</v>
+        <v>-4011.6746956100001</v>
       </c>
       <c r="C24">
-        <v>-4011.3076455599999</v>
+        <v>-4011.4936354299998</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>-791230.13180015434</v>
+        <v>-475373.50259067921</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="1"/>
-        <v>3.9105506741996612</v>
+        <v>0.63691612779892437</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="2"/>
-        <v>3.1405506741996612</v>
+        <v>-0.13308387220107565</v>
       </c>
       <c r="G24" s="2">
         <v>-9.1129999999999996E-3</v>
       </c>
       <c r="H24">
         <f t="shared" si="3"/>
-        <v>-791230.14091315435</v>
+        <v>-475373.51170367922</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="4"/>
-        <v>3.9105507686495757</v>
+        <v>0.63691622224883893</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="5"/>
-        <v>3.1405507686495757</v>
+        <v>-0.13308377775116109</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -4292,37 +4292,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>-4011.6936832699998</v>
+        <v>-4011.7608765700002</v>
       </c>
       <c r="C25">
-        <v>-4011.5210082799999</v>
+        <v>-4011.5904134500001</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>-453358.1862447504</v>
+        <v>-447550.9215600582</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="1"/>
-        <v>0.40874266719956848</v>
+        <v>0.34855440286115141</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="2"/>
-        <v>-0.36125733280043154</v>
+        <f>E25-0.77</f>
+        <v>-0.4214455971388486</v>
       </c>
       <c r="G25" s="2">
         <v>-8.6540000000000002E-3</v>
       </c>
       <c r="H25">
         <f>D25+G25</f>
-        <v>-453358.1948987504</v>
+        <v>-447550.9302140582</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" si="4"/>
-        <v>0.40874275689226708</v>
+        <v>0.34855449255385001</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" si="5"/>
-        <v>-0.36125724310773294</v>
+        <v>-0.42144550744615</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
